--- a/進捗予定管理表.xlsx
+++ b/進捗予定管理表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12570"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="14400" windowHeight="13350" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="80">
   <si>
     <t>α</t>
     <phoneticPr fontId="1"/>
@@ -420,6 +420,126 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>アメフト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アメフト (コンピュータ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遠距離攻撃ステート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近距離攻撃ステート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受け身ステート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特殊技ステート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必殺技ステート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>負けポーズステート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死んだステート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勝ちポーズステート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各種パラメータ調整</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動、近距離攻撃</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1日</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1時間</t>
+    <rPh sb="1" eb="3">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1時間</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遠距離攻撃、カウンター</t>
+    <rPh sb="0" eb="3">
+      <t>エンキョリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特殊技、受け身、必殺技</t>
+    <rPh sb="0" eb="2">
+      <t>トクシュ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ワザ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ヒッサツワザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各種パラメータ調整</t>
+    <rPh sb="0" eb="2">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エフェクト調整</t>
+    <rPh sb="5" eb="7">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -779,6 +899,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -820,30 +964,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2476,7 +2596,7 @@
   </sheetPr>
   <dimension ref="A1:DR57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="X20" sqref="X20:X21"/>
     </sheetView>
   </sheetViews>
@@ -2492,33 +2612,33 @@
       </c>
     </row>
     <row r="3" spans="1:122" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="L3" s="32" t="s">
+      <c r="L3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="33"/>
+      <c r="M3" s="41"/>
       <c r="O3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="30" t="s">
+      <c r="Q3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="31"/>
-      <c r="T3" s="34" t="s">
+      <c r="R3" s="39"/>
+      <c r="T3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="U3" s="35"/>
-      <c r="W3" s="36" t="s">
+      <c r="U3" s="43"/>
+      <c r="W3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="36"/>
-      <c r="Z3" s="37" t="s">
+      <c r="X3" s="44"/>
+      <c r="Z3" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="AA3" s="38"/>
-      <c r="AC3" s="25" t="s">
+      <c r="AA3" s="46"/>
+      <c r="AC3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="AD3" s="25"/>
+      <c r="AD3" s="33"/>
     </row>
     <row r="4" spans="1:122" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:122" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -2907,12 +3027,12 @@
       <c r="DR7" s="14"/>
     </row>
     <row r="8" spans="1:122" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="2" t="s">
         <v>40</v>
       </c>
@@ -3255,10 +3375,10 @@
     </row>
     <row r="9" spans="1:122" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="13"/>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="28"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="14"/>
       <c r="E9" s="13" t="s">
         <v>11</v>
@@ -3386,8 +3506,8 @@
     </row>
     <row r="10" spans="1:122" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="4"/>
       <c r="E10" s="1" t="s">
         <v>10</v>
@@ -3516,8 +3636,8 @@
     </row>
     <row r="11" spans="1:122" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="4"/>
       <c r="E11" s="1" t="s">
         <v>10</v>
@@ -3646,8 +3766,8 @@
     </row>
     <row r="12" spans="1:122" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="4"/>
       <c r="E12" s="1" t="s">
         <v>16</v>
@@ -3776,8 +3896,8 @@
     </row>
     <row r="13" spans="1:122" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="4"/>
       <c r="E13" s="1" t="s">
         <v>11</v>
@@ -9000,27 +9120,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="39"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="39"/>
+      <c r="D1" s="25"/>
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="39"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="39"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="27" t="s">
         <v>48</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="26" t="s">
         <v>50</v>
       </c>
       <c r="E3" s="24" t="s">
@@ -9028,258 +9148,258 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="46"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="D5" s="39"/>
+      <c r="B5" s="25"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="25"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="D7" s="39"/>
+      <c r="B7" s="25"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="B8" s="25"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="25"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="B10" s="25"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="B11" s="25"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="D12" s="39"/>
+      <c r="B12" s="25"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>9</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="B13" s="25"/>
+      <c r="D13" s="25"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="D14" s="39"/>
+      <c r="B14" s="25"/>
+      <c r="D14" s="25"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>11</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="D15" s="39"/>
+      <c r="B15" s="25"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>12</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="D16" s="39"/>
+      <c r="B16" s="25"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>13</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="D17" s="39"/>
+      <c r="B17" s="25"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>14</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="D18" s="39"/>
+      <c r="B18" s="25"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>15</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="D19" s="39"/>
+      <c r="B19" s="25"/>
+      <c r="D19" s="25"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>16</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="D20" s="39"/>
+      <c r="B20" s="25"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>17</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="D21" s="39"/>
+      <c r="B21" s="25"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>18</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="D22" s="39"/>
+      <c r="B22" s="25"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>19</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="D23" s="39"/>
+      <c r="B23" s="25"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>20</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="D24" s="39"/>
+      <c r="B24" s="25"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>21</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="D25" s="39"/>
+      <c r="B25" s="25"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>22</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="D26" s="39"/>
+      <c r="B26" s="25"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>23</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="D27" s="39"/>
+      <c r="B27" s="25"/>
+      <c r="D27" s="25"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>24</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="D28" s="39"/>
+      <c r="B28" s="25"/>
+      <c r="D28" s="25"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>25</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="D29" s="39"/>
+      <c r="B29" s="25"/>
+      <c r="D29" s="25"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>26</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="D30" s="39"/>
+      <c r="B30" s="25"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>27</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="D31" s="39"/>
+      <c r="B31" s="25"/>
+      <c r="D31" s="25"/>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>28</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="D32" s="39"/>
+      <c r="B32" s="25"/>
+      <c r="D32" s="25"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>29</v>
       </c>
-      <c r="B33" s="39"/>
-      <c r="D33" s="39"/>
+      <c r="B33" s="25"/>
+      <c r="D33" s="25"/>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>30</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="D34" s="39"/>
+      <c r="B34" s="25"/>
+      <c r="D34" s="25"/>
       <c r="E34" s="4"/>
     </row>
   </sheetData>
@@ -9306,27 +9426,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="39"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="39"/>
+      <c r="D1" s="25"/>
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="39"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="39"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="27" t="s">
         <v>48</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="26" t="s">
         <v>50</v>
       </c>
       <c r="E3" s="24" t="s">
@@ -9334,258 +9454,258 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="46"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="D5" s="39"/>
+      <c r="B5" s="25"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="25"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="D7" s="39"/>
+      <c r="B7" s="25"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="B8" s="25"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="25"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="B10" s="25"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="B11" s="25"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="D12" s="39"/>
+      <c r="B12" s="25"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>9</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="B13" s="25"/>
+      <c r="D13" s="25"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="D14" s="39"/>
+      <c r="B14" s="25"/>
+      <c r="D14" s="25"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>11</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="D15" s="39"/>
+      <c r="B15" s="25"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>12</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="D16" s="39"/>
+      <c r="B16" s="25"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>13</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="D17" s="39"/>
+      <c r="B17" s="25"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>14</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="D18" s="39"/>
+      <c r="B18" s="25"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>15</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="D19" s="39"/>
+      <c r="B19" s="25"/>
+      <c r="D19" s="25"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>16</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="D20" s="39"/>
+      <c r="B20" s="25"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>17</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="D21" s="39"/>
+      <c r="B21" s="25"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>18</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="D22" s="39"/>
+      <c r="B22" s="25"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>19</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="D23" s="39"/>
+      <c r="B23" s="25"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>20</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="D24" s="39"/>
+      <c r="B24" s="25"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>21</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="D25" s="39"/>
+      <c r="B25" s="25"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>22</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="D26" s="39"/>
+      <c r="B26" s="25"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>23</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="D27" s="39"/>
+      <c r="B27" s="25"/>
+      <c r="D27" s="25"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>24</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="D28" s="39"/>
+      <c r="B28" s="25"/>
+      <c r="D28" s="25"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>25</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="D29" s="39"/>
+      <c r="B29" s="25"/>
+      <c r="D29" s="25"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>26</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="D30" s="39"/>
+      <c r="B30" s="25"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>27</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="D31" s="39"/>
+      <c r="B31" s="25"/>
+      <c r="D31" s="25"/>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>28</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="D32" s="39"/>
+      <c r="B32" s="25"/>
+      <c r="D32" s="25"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>29</v>
       </c>
-      <c r="B33" s="39"/>
-      <c r="D33" s="39"/>
+      <c r="B33" s="25"/>
+      <c r="D33" s="25"/>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>30</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="D34" s="39"/>
+      <c r="B34" s="25"/>
+      <c r="D34" s="25"/>
       <c r="E34" s="4"/>
     </row>
   </sheetData>
@@ -9598,13 +9718,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="22.625" customWidth="1"/>
     <col min="3" max="3" width="33.25" customWidth="1"/>
     <col min="4" max="4" width="9.375" customWidth="1"/>
     <col min="5" max="5" width="71.125" customWidth="1"/>
@@ -9612,27 +9732,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="39"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="39"/>
+      <c r="D1" s="25"/>
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="39"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="39"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="27" t="s">
         <v>48</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="26" t="s">
         <v>50</v>
       </c>
       <c r="E3" s="24" t="s">
@@ -9640,258 +9760,332 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="46"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="D5" s="39"/>
+      <c r="B5" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="25"/>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>72</v>
+      </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="D7" s="39"/>
+      <c r="B7" s="25"/>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>72</v>
+      </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="B8" s="25"/>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>72</v>
+      </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="25"/>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>72</v>
+      </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="B10" s="25"/>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>73</v>
+      </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="B11" s="25"/>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>74</v>
+      </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="D12" s="39"/>
+      <c r="B12" s="25"/>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>74</v>
+      </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>9</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="B13" s="25"/>
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="D14" s="39"/>
+      <c r="B14" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>72</v>
+      </c>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>11</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="D15" s="39"/>
+      <c r="B15" s="25"/>
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>12</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="D16" s="39"/>
+      <c r="B16" s="25"/>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>77</v>
+      </c>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>13</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="D17" s="39"/>
+      <c r="B17" s="25"/>
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>14</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="D18" s="39"/>
+      <c r="B18" s="25"/>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>15</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="D19" s="39"/>
+      <c r="B19" s="25"/>
+      <c r="D19" s="25"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>16</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="D20" s="39"/>
+      <c r="B20" s="25"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>17</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="D21" s="39"/>
+      <c r="B21" s="25"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>18</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="D22" s="39"/>
+      <c r="B22" s="25"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>19</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="D23" s="39"/>
+      <c r="B23" s="25"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>20</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="D24" s="39"/>
+      <c r="B24" s="25"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>21</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="D25" s="39"/>
+      <c r="B25" s="25"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>22</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="D26" s="39"/>
+      <c r="B26" s="25"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>23</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="D27" s="39"/>
+      <c r="B27" s="25"/>
+      <c r="D27" s="25"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>24</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="D28" s="39"/>
+      <c r="B28" s="25"/>
+      <c r="D28" s="25"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>25</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="D29" s="39"/>
+      <c r="B29" s="25"/>
+      <c r="D29" s="25"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>26</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="D30" s="39"/>
+      <c r="B30" s="25"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>27</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="D31" s="39"/>
+      <c r="B31" s="25"/>
+      <c r="D31" s="25"/>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>28</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="D32" s="39"/>
+      <c r="B32" s="25"/>
+      <c r="D32" s="25"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>29</v>
       </c>
-      <c r="B33" s="39"/>
-      <c r="D33" s="39"/>
+      <c r="B33" s="25"/>
+      <c r="D33" s="25"/>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>30</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="D34" s="39"/>
+      <c r="B34" s="25"/>
+      <c r="D34" s="25"/>
       <c r="E34" s="4"/>
     </row>
   </sheetData>
@@ -9918,27 +10112,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="39"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="39"/>
+      <c r="D1" s="25"/>
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="39"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="39"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="27" t="s">
         <v>48</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="26" t="s">
         <v>50</v>
       </c>
       <c r="E3" s="24" t="s">
@@ -9946,258 +10140,258 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="46"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="D5" s="39"/>
+      <c r="B5" s="25"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="25"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="D7" s="39"/>
+      <c r="B7" s="25"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="B8" s="25"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="25"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="B10" s="25"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="B11" s="25"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="D12" s="39"/>
+      <c r="B12" s="25"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>9</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="B13" s="25"/>
+      <c r="D13" s="25"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="D14" s="39"/>
+      <c r="B14" s="25"/>
+      <c r="D14" s="25"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>11</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="D15" s="39"/>
+      <c r="B15" s="25"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>12</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="D16" s="39"/>
+      <c r="B16" s="25"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>13</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="D17" s="39"/>
+      <c r="B17" s="25"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>14</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="D18" s="39"/>
+      <c r="B18" s="25"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>15</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="D19" s="39"/>
+      <c r="B19" s="25"/>
+      <c r="D19" s="25"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>16</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="D20" s="39"/>
+      <c r="B20" s="25"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>17</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="D21" s="39"/>
+      <c r="B21" s="25"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>18</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="D22" s="39"/>
+      <c r="B22" s="25"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>19</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="D23" s="39"/>
+      <c r="B23" s="25"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>20</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="D24" s="39"/>
+      <c r="B24" s="25"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>21</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="D25" s="39"/>
+      <c r="B25" s="25"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>22</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="D26" s="39"/>
+      <c r="B26" s="25"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>23</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="D27" s="39"/>
+      <c r="B27" s="25"/>
+      <c r="D27" s="25"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>24</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="D28" s="39"/>
+      <c r="B28" s="25"/>
+      <c r="D28" s="25"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>25</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="D29" s="39"/>
+      <c r="B29" s="25"/>
+      <c r="D29" s="25"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>26</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="D30" s="39"/>
+      <c r="B30" s="25"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>27</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="D31" s="39"/>
+      <c r="B31" s="25"/>
+      <c r="D31" s="25"/>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>28</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="D32" s="39"/>
+      <c r="B32" s="25"/>
+      <c r="D32" s="25"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>29</v>
       </c>
-      <c r="B33" s="39"/>
-      <c r="D33" s="39"/>
+      <c r="B33" s="25"/>
+      <c r="D33" s="25"/>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>30</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="D34" s="39"/>
+      <c r="B34" s="25"/>
+      <c r="D34" s="25"/>
       <c r="E34" s="4"/>
     </row>
   </sheetData>
@@ -10224,27 +10418,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="39"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="39"/>
+      <c r="D1" s="25"/>
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="39"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="39"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="27" t="s">
         <v>48</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="26" t="s">
         <v>50</v>
       </c>
       <c r="E3" s="24" t="s">
@@ -10252,258 +10446,258 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="46"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="D5" s="39"/>
+      <c r="B5" s="25"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="25"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="D7" s="39"/>
+      <c r="B7" s="25"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="B8" s="25"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="25"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="B10" s="25"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="B11" s="25"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="D12" s="39"/>
+      <c r="B12" s="25"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>9</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="B13" s="25"/>
+      <c r="D13" s="25"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="D14" s="39"/>
+      <c r="B14" s="25"/>
+      <c r="D14" s="25"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>11</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="D15" s="39"/>
+      <c r="B15" s="25"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>12</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="D16" s="39"/>
+      <c r="B16" s="25"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>13</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="D17" s="39"/>
+      <c r="B17" s="25"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>14</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="D18" s="39"/>
+      <c r="B18" s="25"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>15</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="D19" s="39"/>
+      <c r="B19" s="25"/>
+      <c r="D19" s="25"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>16</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="D20" s="39"/>
+      <c r="B20" s="25"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>17</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="D21" s="39"/>
+      <c r="B21" s="25"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>18</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="D22" s="39"/>
+      <c r="B22" s="25"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>19</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="D23" s="39"/>
+      <c r="B23" s="25"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>20</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="D24" s="39"/>
+      <c r="B24" s="25"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>21</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="D25" s="39"/>
+      <c r="B25" s="25"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>22</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="D26" s="39"/>
+      <c r="B26" s="25"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>23</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="D27" s="39"/>
+      <c r="B27" s="25"/>
+      <c r="D27" s="25"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>24</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="D28" s="39"/>
+      <c r="B28" s="25"/>
+      <c r="D28" s="25"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>25</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="D29" s="39"/>
+      <c r="B29" s="25"/>
+      <c r="D29" s="25"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>26</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="D30" s="39"/>
+      <c r="B30" s="25"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>27</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="D31" s="39"/>
+      <c r="B31" s="25"/>
+      <c r="D31" s="25"/>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>28</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="D32" s="39"/>
+      <c r="B32" s="25"/>
+      <c r="D32" s="25"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>29</v>
       </c>
-      <c r="B33" s="39"/>
-      <c r="D33" s="39"/>
+      <c r="B33" s="25"/>
+      <c r="D33" s="25"/>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>30</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="D34" s="39"/>
+      <c r="B34" s="25"/>
+      <c r="D34" s="25"/>
       <c r="E34" s="4"/>
     </row>
   </sheetData>
@@ -10530,27 +10724,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="39"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="39"/>
+      <c r="D1" s="25"/>
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="39"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="39"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="27" t="s">
         <v>48</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="26" t="s">
         <v>50</v>
       </c>
       <c r="E3" s="24" t="s">
@@ -10558,258 +10752,258 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="46"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="D5" s="39"/>
+      <c r="B5" s="25"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="25"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="D7" s="39"/>
+      <c r="B7" s="25"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="B8" s="25"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="25"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="B10" s="25"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="B11" s="25"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="D12" s="39"/>
+      <c r="B12" s="25"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>9</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="B13" s="25"/>
+      <c r="D13" s="25"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="D14" s="39"/>
+      <c r="B14" s="25"/>
+      <c r="D14" s="25"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>11</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="D15" s="39"/>
+      <c r="B15" s="25"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>12</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="D16" s="39"/>
+      <c r="B16" s="25"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>13</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="D17" s="39"/>
+      <c r="B17" s="25"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>14</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="D18" s="39"/>
+      <c r="B18" s="25"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>15</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="D19" s="39"/>
+      <c r="B19" s="25"/>
+      <c r="D19" s="25"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>16</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="D20" s="39"/>
+      <c r="B20" s="25"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>17</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="D21" s="39"/>
+      <c r="B21" s="25"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>18</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="D22" s="39"/>
+      <c r="B22" s="25"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>19</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="D23" s="39"/>
+      <c r="B23" s="25"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>20</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="D24" s="39"/>
+      <c r="B24" s="25"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>21</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="D25" s="39"/>
+      <c r="B25" s="25"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>22</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="D26" s="39"/>
+      <c r="B26" s="25"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>23</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="D27" s="39"/>
+      <c r="B27" s="25"/>
+      <c r="D27" s="25"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>24</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="D28" s="39"/>
+      <c r="B28" s="25"/>
+      <c r="D28" s="25"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>25</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="D29" s="39"/>
+      <c r="B29" s="25"/>
+      <c r="D29" s="25"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>26</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="D30" s="39"/>
+      <c r="B30" s="25"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>27</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="D31" s="39"/>
+      <c r="B31" s="25"/>
+      <c r="D31" s="25"/>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>28</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="D32" s="39"/>
+      <c r="B32" s="25"/>
+      <c r="D32" s="25"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>29</v>
       </c>
-      <c r="B33" s="39"/>
-      <c r="D33" s="39"/>
+      <c r="B33" s="25"/>
+      <c r="D33" s="25"/>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>30</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="D34" s="39"/>
+      <c r="B34" s="25"/>
+      <c r="D34" s="25"/>
       <c r="E34" s="4"/>
     </row>
   </sheetData>
@@ -10836,27 +11030,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="39"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="39"/>
+      <c r="D1" s="25"/>
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="39"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="39"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="27" t="s">
         <v>48</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="26" t="s">
         <v>50</v>
       </c>
       <c r="E3" s="24" t="s">
@@ -10864,258 +11058,258 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="46"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="D5" s="39"/>
+      <c r="B5" s="25"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="25"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="D7" s="39"/>
+      <c r="B7" s="25"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="B8" s="25"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="D9" s="39"/>
+      <c r="B9" s="25"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="B10" s="25"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="B11" s="25"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="D12" s="39"/>
+      <c r="B12" s="25"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>9</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="B13" s="25"/>
+      <c r="D13" s="25"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="D14" s="39"/>
+      <c r="B14" s="25"/>
+      <c r="D14" s="25"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>11</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="D15" s="39"/>
+      <c r="B15" s="25"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>12</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="D16" s="39"/>
+      <c r="B16" s="25"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>13</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="D17" s="39"/>
+      <c r="B17" s="25"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>14</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="D18" s="39"/>
+      <c r="B18" s="25"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>15</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="D19" s="39"/>
+      <c r="B19" s="25"/>
+      <c r="D19" s="25"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>16</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="D20" s="39"/>
+      <c r="B20" s="25"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>17</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="D21" s="39"/>
+      <c r="B21" s="25"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>18</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="D22" s="39"/>
+      <c r="B22" s="25"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>19</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="D23" s="39"/>
+      <c r="B23" s="25"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>20</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="D24" s="39"/>
+      <c r="B24" s="25"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>21</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="D25" s="39"/>
+      <c r="B25" s="25"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>22</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="D26" s="39"/>
+      <c r="B26" s="25"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>23</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="D27" s="39"/>
+      <c r="B27" s="25"/>
+      <c r="D27" s="25"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>24</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="D28" s="39"/>
+      <c r="B28" s="25"/>
+      <c r="D28" s="25"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>25</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="D29" s="39"/>
+      <c r="B29" s="25"/>
+      <c r="D29" s="25"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>26</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="D30" s="39"/>
+      <c r="B30" s="25"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>27</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="D31" s="39"/>
+      <c r="B31" s="25"/>
+      <c r="D31" s="25"/>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>28</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="D32" s="39"/>
+      <c r="B32" s="25"/>
+      <c r="D32" s="25"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>29</v>
       </c>
-      <c r="B33" s="39"/>
-      <c r="D33" s="39"/>
+      <c r="B33" s="25"/>
+      <c r="D33" s="25"/>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>30</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="D34" s="39"/>
+      <c r="B34" s="25"/>
+      <c r="D34" s="25"/>
       <c r="E34" s="4"/>
     </row>
   </sheetData>
